--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1088879.717491934</v>
+        <v>1117829.467727758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>81083.00515982797</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8525943.296211552</v>
+        <v>8525943.29621155</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.436828387929</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>136.0662337059685</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.704257586254073</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>17.20594825574972</v>
       </c>
       <c r="F5" t="n">
-        <v>84.13185419305587</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>24.96762110967051</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>247.9577168517027</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>200.9124899777286</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.4526210585752</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>52.82290122762556</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>300.8638984122743</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>342.2539560722655</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>353.5759586385881</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1625,7 +1625,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,28 +1765,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>388.8283111467326</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>244.7436793601181</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>56.57756245340212</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>104.5113366705984</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>296.4456281581539</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>181.0772784089421</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>63.49046982291158</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>105.3148082618172</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>64.76583591206386</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>78.88684406884218</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.60620160013896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2798,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.0656345792516</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>42.552497644928</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>74.53436060286468</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>134.1186324348726</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>340.0237825764901</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>194.9453656527045</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8608514409109</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>115.2373148110768</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>234.4585521898009</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,28 +3661,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>34.0511073778743</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>14.52687838733109</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>72.75222284062259</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>62.23649281569832</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>235.4745188564438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>123.8167699816754</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.30758686808386</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>132.9971948932742</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>798.8085204912368</v>
       </c>
     </row>
     <row r="3">
@@ -4404,16 +4404,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,52 +4486,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>543.7934291343875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1781.603107998156</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1781.603107998156</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>1423.337409391406</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E5" t="n">
-        <v>1037.549156793162</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.202948062278</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>525.3455871915426</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>525.3455871915426</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>525.3455871915426</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>525.3455871915426</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1707.318255429741</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1338.355738489329</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.355738489329</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>952.5674858910851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2446.686750763977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2093.918095493863</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2093.918095493863</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2093.918095493863</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="9">
@@ -4863,10 +4863,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
@@ -4875,7 +4875,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C11" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D11" t="n">
-        <v>1635.28076286629</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.492510268045</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>838.5066054784379</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,10 +5042,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5075,16 +5075,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5127,34 +5127,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1309.714918859356</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C14" t="n">
-        <v>1309.714918859356</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.714918859356</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E14" t="n">
-        <v>1309.714918859356</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,43 +5364,43 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064343</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1369.416431066817</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C17" t="n">
-        <v>1369.416431066817</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.150732460067</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E17" t="n">
-        <v>1011.150732460067</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F17" t="n">
-        <v>600.1648276704593</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
         <v>207.4089578252748</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5546,19 +5546,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1759.555763042629</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>1759.555763042629</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y17" t="n">
-        <v>1369.416431066817</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="18">
@@ -5613,7 +5613,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>443.6717438918015</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W19" t="n">
-        <v>443.6717438918015</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X19" t="n">
-        <v>443.6717438918015</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8791647482714</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.5099885583426</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>159.5099885583426</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>159.5099885583426</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5099885583426</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>159.5099885583426</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>159.5099885583426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>159.5099885583426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982761</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y20" t="n">
-        <v>546.1098286224644</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.840903686825</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>2469.840903686825</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>2215.156415480938</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1760.851696582593</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C23" t="n">
-        <v>1391.889179642181</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="D23" t="n">
-        <v>1033.623481035431</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="E23" t="n">
-        <v>647.8352284371863</v>
+        <v>947.0244824116958</v>
       </c>
       <c r="F23" t="n">
-        <v>236.8493236475787</v>
+        <v>536.0385776220883</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>118.0747695202751</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6023,16 @@
         <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>2147.451536646714</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W23" t="n">
-        <v>2147.451536646714</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.451536646714</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y23" t="n">
-        <v>2147.451536646714</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,43 +6066,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D25" t="n">
         <v>2022.963088632153</v>
@@ -6166,31 +6166,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2077.988902792793</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.1098286224644</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C26" t="n">
-        <v>546.1098286224644</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D26" t="n">
-        <v>546.1098286224644</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E26" t="n">
-        <v>160.3215760242202</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,10 +6254,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
         <v>1662.48357412947</v>
@@ -6266,10 +6266,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982761</v>
+        <v>1244.294882584544</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.1098286224644</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>269.9555735993346</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>352.67413830922</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>97.9896501033331</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>97.9896501033331</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X28" t="n">
-        <v>97.9896501033331</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1061.976198199964</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C29" t="n">
-        <v>693.0136812595522</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D29" t="n">
-        <v>334.7479826528017</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2212.181128500977</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2212.181128500977</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X29" t="n">
-        <v>1838.715370239897</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y29" t="n">
-        <v>1448.576038264086</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6549,16 +6549,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6579,10 +6579,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
         <v>53.94298182036445</v>
@@ -6655,16 +6655,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447095</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C32" t="n">
-        <v>1194.175505447095</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D32" t="n">
-        <v>1194.175505447095</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E32" t="n">
-        <v>808.3872528488505</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>397.4013480592429</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2506.647035452885</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511217</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6798,22 +6798,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>2058.606050724286</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082163</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748109</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487029</v>
+        <v>2445.205890788408</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>2445.205890788408</v>
       </c>
     </row>
     <row r="36">
@@ -7011,10 +7011,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7026,13 +7026,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253592</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036446</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2669.933035536899</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2669.933035536899</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>2669.933035536899</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V38" t="n">
-        <v>2669.933035536899</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W38" t="n">
-        <v>2317.164380266785</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.698622005704</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,31 +7263,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C40" t="n">
-        <v>224.666950679165</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D40" t="n">
-        <v>224.666950679165</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E40" t="n">
-        <v>224.666950679165</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>2083.293227597676</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>513.840561024597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.666950679165</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1543.155461091169</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1543.155461091169</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1184.889762484419</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>799.1015098861748</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>127.4300755987711</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7421,40 +7421,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1992.620445413572</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>1929.755301155291</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>490.2759348564911</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V43" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W43" t="n">
-        <v>235.5914466506042</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X43" t="n">
-        <v>235.5914466506042</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.5914466506042</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1061.921889775366</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>1061.921889775366</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>1061.921889775366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.921889775366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>650.9359849857585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>232.9721768839454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.661061815299</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X44" t="n">
-        <v>1838.661061815299</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1448.521729839488</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7743,7 +7743,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>338.4002221349973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>188.2835827226616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.8360633830785</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>250.1717049500851</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>218.3308478718302</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22787,16 +22787,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>364.7244218165121</v>
       </c>
       <c r="F5" t="n">
-        <v>322.7441915486556</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22847,10 +22847,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22951,13 +22951,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,10 +22987,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>187.1779178403484</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,16 +23021,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23078,16 +23078,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>79.79454161843219</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>185.325448678325</v>
       </c>
     </row>
     <row r="9">
@@ -23185,13 +23185,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>193.7687166924625</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>329.1074688446362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>112.9202716085207</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>12.4290855484175</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>53.3000871031233</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23653,28 +23653,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>83.6485151246798</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>24.95585887406236</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23786,16 +23786,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>124.9874213183509</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>3.866209516361209</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,16 +23938,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>195.5600808704259</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23969,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>47.41997957426287</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>52.79534055925916</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,16 +24178,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>96.25160475629423</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>232.7068916118529</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>260.4323029414456</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24263,7 +24263,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>301.5612374798943</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>304.9652647664052</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>77.28404477295297</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24646,19 +24646,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.9784517519558</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.8647354930102</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>343.6854410111256</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>92.71246049576315</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24895,16 +24895,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>40.29708037409895</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.94099699593491</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>25.24910919451742</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>21.50295470495325</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>3.448950818140048</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,7 +25366,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>171.044559430901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25406,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>89.46422057455624</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.53450764830093</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25549,28 +25549,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.3699406450569</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717198</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>79.17909340423866</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>324.0014458403552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>50.80735538553392</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>101.8928854073618</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>298.6151858962733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25910,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.43676775329502</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149698</v>
@@ -26326,34 +26326,34 @@
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="H2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.97951497</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>3973.22941128696</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,19 +26479,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402105.2071742711</v>
+        <v>-398645.0862620438</v>
       </c>
       <c r="C6" t="n">
-        <v>187862.6720402734</v>
+        <v>191322.7929525006</v>
       </c>
       <c r="D6" t="n">
-        <v>187862.6720402732</v>
+        <v>191322.7929525007</v>
       </c>
       <c r="E6" t="n">
-        <v>221490.2720402734</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="F6" t="n">
-        <v>221490.2720402733</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="G6" t="n">
-        <v>221490.2720402735</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="H6" t="n">
-        <v>221490.2720402735</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="I6" t="n">
-        <v>221490.2720402733</v>
+        <v>224950.3929525005</v>
       </c>
       <c r="J6" t="n">
-        <v>45067.05284768025</v>
+        <v>48527.17375990775</v>
       </c>
       <c r="K6" t="n">
-        <v>221490.2720402733</v>
+        <v>224950.3929525004</v>
       </c>
       <c r="L6" t="n">
-        <v>221490.2720402734</v>
+        <v>224950.3929525004</v>
       </c>
       <c r="M6" t="n">
-        <v>221490.2720402733</v>
+        <v>224950.3929525007</v>
       </c>
       <c r="N6" t="n">
-        <v>221490.2720402734</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="O6" t="n">
-        <v>221490.2720402733</v>
+        <v>224950.3929525006</v>
       </c>
       <c r="P6" t="n">
-        <v>221490.2720402736</v>
+        <v>224950.3929525005</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,19 +26799,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,7 +31847,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -32084,7 +32084,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32324,7 +32324,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32564,7 +32564,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33676,7 +33676,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
         <v>95.39071536633797</v>
@@ -33746,7 +33746,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O36" t="n">
         <v>193.3156655923047</v>
@@ -34214,7 +34214,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34463,7 +34463,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38111,10 +38111,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095354.117138119</v>
+        <v>1141049.386191716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11390.52824442476</v>
+        <v>6268.704667165168</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8525943.29621155</v>
+        <v>8525943.296211552</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.85990226925162</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>94.79884122594908</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>62.27914576410208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>252.7077160573361</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>32.24381740537284</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>89.06613335611763</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7038031735299</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>362.5917721852383</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11.00429467105819</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.92375604299515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>364.0683217201758</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>28.2953590024603</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>172.0766384386614</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1666,7 +1666,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>206.6949325720446</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>125.1849693405052</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>60.77270032618416</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>47.38082832435524</v>
+        <v>49.26213668469006</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,16 +2131,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>177.5187113419327</v>
       </c>
       <c r="E23" t="n">
-        <v>93.18915623846719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2377,10 +2377,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>30.05143818257736</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>235.5000960026872</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>201.0661795492197</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>178.8652900300094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>89.066133356118</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>229.5889480231529</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>97.42438893504253</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V31" t="n">
-        <v>19.85889072024094</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>45.44558366074797</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>250.3969541190191</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>68.25327490405927</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>216.6993815150877</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>268.5876485621592</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>125.8721928563317</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>59.53544153398409</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>25.3159054168628</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>155.2114886365812</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>281.7423800959427</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.54548707015012</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>128.7835007017905</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>56.46513174239331</v>
       </c>
       <c r="X44" t="n">
-        <v>225.4603876057579</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>17.69750843285672</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>89.06613335611794</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1261.831893336434</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C2" t="n">
-        <v>892.8693763960225</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>978.6490999905216</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592772</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.56916835588</v>
+        <v>2092.477155601805</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>116.851209864912</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1611.619444146874</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.656927206462</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1242.656927206462</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>1242.656927206462</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>831.6710224168544</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>413.7072143150413</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>86.5124943510441</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y5" t="n">
-        <v>1998.219284210995</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1168.064026826586</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1944.80319886652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336931</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4895,19 +4895,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>137.7043515607636</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1250.638474227114</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W11" t="n">
-        <v>1640.777806202926</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X11" t="n">
-        <v>1640.777806202926</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1250.638474227114</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>368.8844281164663</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>773.5003462121382</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.37379586972</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2291.509718890064</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5226,16 +5226,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
         <v>53.94298182036445</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1394.624369323446</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>1784.763701299258</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W14" t="n">
-        <v>1784.763701299258</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X14" t="n">
-        <v>1784.763701299258</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y14" t="n">
-        <v>1394.624369323446</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,49 +5357,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5445,43 +5445,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610022</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V16" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1394.624369323446</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C17" t="n">
-        <v>1394.624369323446</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2120.85878285464</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2120.85878285464</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>1768.090127584526</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X17" t="n">
-        <v>1394.624369323446</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y17" t="n">
-        <v>1394.624369323446</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1289.017815868389</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C20" t="n">
-        <v>1289.017815868389</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D20" t="n">
-        <v>930.7521172616389</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.483574129469</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.017815868389</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y20" t="n">
-        <v>1289.017815868389</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>266.2060027641994</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>571.1061430638138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1662.483574129469</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="C23" t="n">
-        <v>1662.483574129469</v>
+        <v>1447.992776948345</v>
       </c>
       <c r="D23" t="n">
-        <v>1304.217875522719</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.483574129469</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.483574129469</v>
+        <v>1816.955293888757</v>
       </c>
       <c r="Y23" t="n">
-        <v>1662.483574129469</v>
+        <v>1816.955293888757</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641983</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598703</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,7 +6089,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>411.0461427127113</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>411.0461427127113</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>411.0461427127113</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>411.0461427127113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>242.0463424510438</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>84.2979698835739</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406182</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W25" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1150.38930518072</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.38930518072</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739693</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
         <v>381.1377017843616</v>
@@ -6220,58 +6220,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843236</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.527073573122</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X26" t="n">
-        <v>1331.061315312042</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y26" t="n">
-        <v>1150.38930518072</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641983</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598703</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694741</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>633.0121514610321</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090468</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194392</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>991.2778500677825</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,25 +6542,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036446</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V31" t="n">
-        <v>708.0694986304334</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224079</v>
@@ -6715,37 +6715,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2256.432306344104</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1925.369419000534</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1572.60076373042</v>
+        <v>1585.734845533462</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.13500546934</v>
+        <v>1585.734845533462</v>
       </c>
       <c r="Y32" t="n">
-        <v>1199.13500546934</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6800,22 +6800,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>269.775631241567</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T34" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U34" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V34" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694739</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857191</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1995.909162857191</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1995.909162857191</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>368.8844281164664</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121383</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>181.0866109681743</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7174,7 +7174,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761949</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>377.544336448288</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>227.4276970359523</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>79.5146034535592</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>79.5146034535592</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036446</v>
@@ -7344,40 +7344,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064347</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064347</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090468</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7447,16 +7447,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2357.532138825542</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>259.1560728187104</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>259.1560728187104</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>109.0394334063747</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>109.0394334063747</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0394334063747</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7581,40 +7581,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V43" t="n">
-        <v>259.1560728187104</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W43" t="n">
-        <v>259.1560728187104</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="X43" t="n">
-        <v>259.1560728187104</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.1560728187104</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1637.643464250441</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
         <v>882.8926947117852</v>
@@ -7639,31 +7639,31 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
@@ -7681,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.382636290375</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y44" t="n">
-        <v>2024.243304314563</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.4805193761947</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="C46" t="n">
-        <v>528.604248231895</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="D46" t="n">
-        <v>528.604248231895</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7824,34 +7824,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694739</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.873939394229</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>287.1315288463127</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>93.89174307769306</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22764,10 +22764,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22789,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>129.2226540149257</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>119.6874988394884</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>53.97620323457204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>67.10475548567752</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22998,7 +22998,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0300384899506</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,7 +23077,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>7.139328493230721</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>134.4167533518731</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.6608973090997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.204570050831762</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>341.4357416760087</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>210.6572032248192</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>121.0573258980903</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23670,13 +23670,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401878</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>126.0391981677841</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>288.4682683912288</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>64.16285195963717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.5495417479066</v>
+        <v>332.6682333875717</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24180,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>69.58249272689005</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>177.1643302787502</v>
       </c>
       <c r="E23" t="n">
-        <v>288.7412138337946</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>104.9141836097609</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24423,10 +24423,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114077</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>126.6860789209152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>207.3726486260442</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209435</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24660,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>22.54869530067506</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>284.5059811372192</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V31" t="n">
-        <v>232.2787526035871</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>205.7785838475413</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>98.84401459839393</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>80.36219811415309</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>69.58249272689002</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>101.1434521163098</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.56176979023746</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401873</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25444,16 +25444,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>289.7055271834289</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.9938968421881</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801578</v>
@@ -25608,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724676</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25687,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>46.00987837419223</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>112.7643151889008</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724665</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>292.7758369750197</v>
       </c>
       <c r="X44" t="n">
-        <v>144.2707130727111</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>149.5493126657711</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209441</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="D2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="G2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.139441335202719e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.961990392373991e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26438,10 +26438,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597036</v>
@@ -26450,13 +26450,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="O4" t="n">
         <v>513.1084990597037</v>
-      </c>
-      <c r="O4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26490,19 +26490,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340948</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340948</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404713.5000078632</v>
+        <v>-399251.9276366256</v>
       </c>
       <c r="C6" t="n">
-        <v>185254.3792066813</v>
+        <v>190715.9515779188</v>
       </c>
       <c r="D6" t="n">
-        <v>185254.3792066813</v>
+        <v>190715.9515779189</v>
       </c>
       <c r="E6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="F6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="G6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="H6" t="n">
-        <v>218881.9792066816</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="I6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779185</v>
       </c>
       <c r="J6" t="n">
-        <v>42458.76001408837</v>
+        <v>47920.33238532574</v>
       </c>
       <c r="K6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="L6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="M6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="N6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="O6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="P6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,25 +26758,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="N3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="O3" t="n">
         <v>377.7436642170869</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,22 +26807,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31150,19 +31150,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,10 +31840,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31858,10 +31858,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32010,25 +32010,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32323,7 +32323,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>190.1500580638415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
@@ -32332,10 +32332,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727429</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32554,7 +32554,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>87.78329382423999</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.7832938242388</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M25" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653182</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O27" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L28" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M28" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>190.1500580638415</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044129</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323596</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.04368814949357</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33903,28 +33903,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472037</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649103</v>
@@ -33985,28 +33985,28 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O39" t="n">
         <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,19 +34064,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34125,10 +34125,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34140,28 +34140,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O41" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472037</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649103</v>
@@ -34222,7 +34222,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923048</v>
@@ -34231,19 +34231,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J43" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,19 +34301,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34380,7 +34380,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
         <v>255.8615389119866</v>
@@ -34389,19 +34389,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
         <v>27.9744128689069</v>
@@ -34453,16 +34453,16 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q46" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34559,7 +34559,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35506,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35971,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>513.7210878918231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35980,10 +35980,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624584</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L25" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M25" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047514</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O27" t="n">
-        <v>325.1459203262125</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L28" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M28" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>513.7210878918231</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.29709682323571</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.997506289869</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031299</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492238</v>
@@ -37797,7 +37797,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q41" t="n">
         <v>153.997506289869</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031299</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
